--- a/1持续耕耘/一五护城河.xlsx
+++ b/1持续耕耘/一五护城河.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="309">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -3441,6 +3441,149 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400能力圈</t>
+    <rPh sb="4" eb="5">
+      <t>neng'li'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000能力圈</t>
+    <rPh sb="4" eb="5">
+      <t>neng'li'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟父母和修婷视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen'fu'mu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu'ting</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷打电话</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'dian'hau</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持健身但是以后要早去早回并且不能懈怠</t>
+    <rPh sb="0" eb="1">
+      <t>jian'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'shen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi'hou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zao'qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zao'hui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xie'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读书并且开始思维模型框架整理</t>
+    <rPh sb="0" eb="1">
+      <t>du'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>si'wei'mo'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kuang'jia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zheng'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能懈怠不做工作，但是今天确实看了更多算法</t>
+    <rPh sb="0" eb="1">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie'dai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'zuo'gong'zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jin'tian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>que'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kan'le</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>geng'duo'suan'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是要看算法不然不能够回去睡觉</t>
+    <rPh sb="0" eb="1">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yao'kan'suan'fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'ran'bu'neng'gou'hui'qu'shui'jiao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3874,8 +4017,8 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4111,10 +4254,40 @@
       <c r="A12" s="3">
         <v>20180111</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3535</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>20180112</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4554</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/1持续耕耘/一五护城河.xlsx
+++ b/1持续耕耘/一五护城河.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="312">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -3584,6 +3584,111 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>bu'ran'bu'neng'gou'hui'qu'shui'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟父母视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen'fu'mu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理完所有GRE文章之后开始准备让自己黑暗阅读的岁月打开，以后宁可花一点小时间也不能不再黑暗背景下面阅读</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li'wan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen'zhang'zhi'hou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhun'bei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>rang'zi'ji</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hei'an</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yeu'du</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>de</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>sui'yue</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>da'kai</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>yi'hou</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ning'ke</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>hua'yi'dian</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xiao'shi'jian</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ye'bu'neg</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>bu'zai</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>hei'an</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>bei'jing'xia'mian</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>yue'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己还是坐在凳子上太懒了，这个简直是被传染了，不可想象</t>
+    <rPh sb="0" eb="1">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'zai'deng'zi'shang'ian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tai'lan'le</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhe'ge'jian'zhi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jian'zhi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shi'bei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>chuan'ran'le</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu'ke'xiang'xiang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4017,8 +4122,8 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4293,6 +4398,21 @@
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20180113</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7279</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/1持续耕耘/一五护城河.xlsx
+++ b/1持续耕耘/一五护城河.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="316">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -3689,6 +3689,112 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>bu'ke'xiang'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000成甲</t>
+    <rPh sb="4" eb="5">
+      <t>cheng'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷道歉不应该转发妖艳贱货的微博</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dao'qian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'ying'gai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuan'fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yao'yan'jian'huo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei'bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身失败因为热水停止供应，但是开始看《直觉泵》</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin'wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>re'shui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ting'zhi'gong'ying</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kai'sh</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi'jue'beng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了一点事情，就是一件事情一点一点做的感觉才是真的在做事情，不然那都是扯淡</t>
+    <rPh sb="0" eb="1">
+      <t>zuo'le</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'dian'shi'qing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiu'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'jian'shi'qing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yi'dian'yi'dian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zuo'de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gan'jue</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>cai'shi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhne'de</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zai'zuo'shi'qng</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>bu'ran</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>na'dou'shi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>che'dan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4122,8 +4228,8 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4418,6 +4524,21 @@
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20180114</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4680</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/1持续耕耘/一五护城河.xlsx
+++ b/1持续耕耘/一五护城河.xlsx
@@ -16,11 +16,11 @@
     <sheet name="2017打卡" sheetId="1" r:id="rId2"/>
     <sheet name="复利表" sheetId="2" r:id="rId3"/>
     <sheet name="定投表" sheetId="3" r:id="rId4"/>
-    <sheet name="美股" sheetId="4" r:id="rId5"/>
-    <sheet name="比特币" sheetId="5" r:id="rId6"/>
-    <sheet name="A股" sheetId="6" r:id="rId7"/>
-    <sheet name="定投策略" sheetId="7" r:id="rId8"/>
-    <sheet name="大额收支" sheetId="8" r:id="rId9"/>
+    <sheet name="大额收支" sheetId="8" r:id="rId5"/>
+    <sheet name="美股" sheetId="4" r:id="rId6"/>
+    <sheet name="比特币" sheetId="5" r:id="rId7"/>
+    <sheet name="A股" sheetId="6" r:id="rId8"/>
+    <sheet name="定投策略" sheetId="7" r:id="rId9"/>
     <sheet name="谷歌股票" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="324">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -3795,6 +3795,218 @@
     </rPh>
     <rPh sb="35" eb="36">
       <t>che'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷聊天</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liao'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000成甲</t>
+    <rPh sb="4" eb="5">
+      <t>cheng'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买EOS</t>
+    <rPh sb="0" eb="1">
+      <t>mai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入美元10000</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mei'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴菲特40股越南100股</t>
+    <rPh sb="0" eb="1">
+      <t>ba'fei'te</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yue'nan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特币账户收割</t>
+    <rPh sb="0" eb="1">
+      <t>bi'te'bi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang'hu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身但是应该自己主动再去做有氧或者怎么样健身增加频率效果更好</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ying'gai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu'dong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zai'qu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zuo'you'yang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>huo'zhe</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zen'me'yang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jian'shen</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zeng'jia'pin'l</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xiao'guo</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>geng'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在应该主动帮助修婷建立起来一些内容出来，我也应该迅速在前三个月解决算法基本内容，之后迅速解决所谓的刷题内容，并且尽可能同步到我要面对的以后工作上面去</t>
+    <rPh sb="0" eb="1">
+      <t>xian'zai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bang'zhu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiu'ting</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jian'li'qi'lai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>chu'lai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>wo'ye'ying'gai'xun'su</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>san'ge'yue</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>suan'fa</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ji'ben</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>nei'orng</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zhi'hou</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>xun'su</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>suo'wei'de</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shua'ti</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>nei'orng</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>jin'ke'nneg</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>tong'bu'dao</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>mian'dui</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>de</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>yi'hou</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>gong'zuo'shang'mian'qu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3806,7 +4018,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3866,6 +4078,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3901,7 +4119,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3932,6 +4150,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4227,9 +4448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4544,6 +4765,21 @@
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>20180115</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4776</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4894,7 +5130,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
@@ -7950,10 +8186,299 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>170715</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5400</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>170720</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-2500</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>170729</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>170815</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-8000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>170820</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>170826</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-8000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>170827</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-13000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>170828</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-3000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>170830</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>170907</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-2200</v>
+      </c>
+      <c r="D11" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>171009</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>30700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>171025</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-900</v>
+      </c>
+      <c r="D13" s="1">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>171026</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-29750</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>171101</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>171105</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-5000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>171201</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>171206</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-7000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>180109</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="12">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="1">
+        <f>D18+C19</f>
+        <v>11050</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8014,18 +8539,35 @@
         <v>126</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>180109</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="9">
+        <v>65000</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8138,18 +8680,52 @@
         <v>0.49009999999999998</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>180108</v>
+      </c>
+      <c r="B7" s="9">
+        <v>68000</v>
+      </c>
+      <c r="C7" s="9">
+        <v>85000</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>180109</v>
+      </c>
+      <c r="B8" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="9">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="D8" s="9">
+        <v>89</v>
+      </c>
+      <c r="E8" s="9">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8268,7 +8844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -8421,278 +8997,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>170715</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5400</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>170720</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-2500</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>170729</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>170815</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-8000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>170820</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>24900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>170826</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-8000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>16900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>170827</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-13000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>170828</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-3000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>170830</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>170907</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-2200</v>
-      </c>
-      <c r="D11" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>171009</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>30700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>171025</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-900</v>
-      </c>
-      <c r="D13" s="1">
-        <v>29800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>171026</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-29750</v>
-      </c>
-      <c r="D14" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>171101</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5050</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>171105</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="1">
-        <v>-5000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>171201</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="1">
-        <v>8000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>8050</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>171206</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="1">
-        <v>-7000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1050</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/1持续耕耘/一五护城河.xlsx
+++ b/1持续耕耘/一五护城河.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="327">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -4007,6 +4007,120 @@
     </rPh>
     <rPh sb="70" eb="71">
       <t>gong'zuo'shang'mian'qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷视频谈工作和选择</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tan'gong'zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读书还是没有到了模型的阶段，但是理清了概念和模型之间的关系，总得也有一个自己的模型才行</t>
+    <rPh sb="0" eb="1">
+      <t>du'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mei'you'dao'le</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jie'duan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>li'qing'le</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gai'nain</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>he</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhi'jian</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>de</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>guan'xi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zong'dei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ye'you'yi'ge</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>de</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>cai'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找工作什么的还是要慎重自己的许多选择或者方向</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'gong'zuo'shen'me</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yao'shen'zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi'j</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xu'duo'xuan'ze</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>huo'zhe</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fang'xiang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4448,9 +4562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4782,82 +4896,94 @@
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>20180116</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="3">
+        <v>5714</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>20180117</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>20180118</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>20180119</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20180120</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20180121</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20180122</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20180123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>20180124</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>20180125</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>20180126</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>20180127</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20180128</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>20180129</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>20180130</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>20180131</v>
       </c>

--- a/1持续耕耘/一五护城河.xlsx
+++ b/1持续耕耘/一五护城河.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="328">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -4121,6 +4121,13 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>fang'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200瑞奇</t>
+    <rPh sb="4" eb="5">
+      <t>rui'qi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4564,7 +4571,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4899,6 +4906,9 @@
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>20180116</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="C17" s="3">
         <v>5714</v>

--- a/1持续耕耘/一五护城河.xlsx
+++ b/1持续耕耘/一五护城河.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="334">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -4128,6 +4128,201 @@
     <t>1200瑞奇</t>
     <rPh sb="4" eb="5">
       <t>rui'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100能力圈</t>
+    <rPh sb="4" eb="5">
+      <t>neng'li'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷视频谈工作</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tan'gong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能被一些有的没的话轻易吹动一下，一下也不应该，自己都这么努力也做了这么多了，何必让自己不堪呢！</t>
+    <rPh sb="0" eb="1">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qing'yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chui'dong'yi'xia</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ye'bu'ying'gai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>dou'he'me</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhe'me</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>nu'li</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ye'zuo'le</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhe'me</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>duo'le</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>he'bi'rang'zi'ji</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>bu'kan</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使没有教练课自己该去跑步去跑步，并且要关注到自己的热身</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao'lian'ke</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gai'qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pao'bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>pao'bu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>guan'zhu'dao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>re'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷交流工作，跟晏睿哲视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao'liu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gen'yan'rui'zhe</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器械课正常上，但是不要拉伸自己的腿过分时间</t>
+    <rPh sb="0" eb="1">
+      <t>qi'xie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'chan'sgang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu'yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>la'shen</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tui</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>guo'fen</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi'jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4570,8 +4765,8 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4927,10 +5122,37 @@
       <c r="A18" s="3">
         <v>20180117</v>
       </c>
+      <c r="B18" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3295</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>20180118</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4580</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
